--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/99/word_level_predictions_99.xlsx
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>properly</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3570,104 +3570,104 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
+      <c r="D61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Stuck</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3726,54 +3726,54 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4298,366 +4298,366 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D79" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>6</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>7</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>8</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7233,395 +7233,395 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Check</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>4</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>5</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>6</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>7</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>9</v>
-      </c>
-      <c r="E138" t="inlineStr">
+      <c r="E138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8146,364 +8146,364 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" t="inlineStr">
+      <c r="D149" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D150" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="G153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="G154" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G155" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="G155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8545,11 +8545,11 @@
         </is>
       </c>
       <c r="I156" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K156" s="2" t="b">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8597,11 +8597,11 @@
         </is>
       </c>
       <c r="I157" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8649,11 +8649,11 @@
         </is>
       </c>
       <c r="I158" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8701,11 +8701,11 @@
         </is>
       </c>
       <c r="I159" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K159" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/99/word_level_predictions_99.xlsx
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3570,104 +3570,104 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>4</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>4</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Stuck</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3726,54 +3726,54 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_B</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4298,366 +4298,366 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>5</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" t="n">
         <v>3</v>
       </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>5</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" t="n">
         <v>4</v>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>5</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>5</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>5</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>6</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>5</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>7</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>5</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>8</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>5</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>9</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,371 +7257,371 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>9</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>4</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" s="2" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>9</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>5</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>6</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>9</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>connection</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>7</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" t="n">
         <v>9</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" t="n">
         <v>8</v>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" t="n">
         <v>9</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" t="n">
         <v>9</v>
       </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8146,364 +8146,364 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" t="n">
         <v>10</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" t="n">
         <v>0</v>
       </c>
-      <c r="E149" s="2" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" s="2" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" s="2" t="inlineStr">
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" t="n">
         <v>10</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" s="2" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2" t="inlineStr">
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" t="n">
         <v>10</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" t="n">
         <v>2</v>
       </c>
-      <c r="E151" s="2" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" s="2" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" t="n">
         <v>10</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" t="n">
         <v>3</v>
       </c>
-      <c r="E152" s="2" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" s="2" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="inlineStr">
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" t="n">
         <v>10</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" s="2" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" t="n">
         <v>4</v>
       </c>
-      <c r="E153" s="2" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" s="2" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" t="n">
         <v>10</v>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" t="n">
         <v>5</v>
       </c>
-      <c r="E154" s="2" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" s="2" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L154" s="2" t="inlineStr">
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" t="n">
         <v>10</v>
       </c>
-      <c r="B155" s="2" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" s="2" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" t="n">
         <v>6</v>
       </c>
-      <c r="E155" s="2" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" s="2" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G155" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L155" s="2" t="inlineStr">
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8545,11 +8545,11 @@
         </is>
       </c>
       <c r="I156" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K156" s="2" t="b">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8597,11 +8597,11 @@
         </is>
       </c>
       <c r="I157" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8649,11 +8649,11 @@
         </is>
       </c>
       <c r="I158" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8701,11 +8701,11 @@
         </is>
       </c>
       <c r="I159" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K159" s="2" t="b">
